--- a/models/tbc/data/datos_paises.xlsx
+++ b/models/tbc/data/datos_paises.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$L$21</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -19,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
   <si>
     <t>PARAMETRO</t>
   </si>
@@ -103,6 +106,15 @@
   </si>
   <si>
     <t>PERU</t>
+  </si>
+  <si>
+    <t>URUGUAY</t>
+  </si>
+  <si>
+    <t>REPÚBLICA DOMINICANA</t>
+  </si>
+  <si>
+    <t>JAMAICA</t>
   </si>
 </sst>
 </file>
@@ -123,14 +135,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -141,6 +145,15 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -254,19 +267,18 @@
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -278,9 +290,10 @@
     <xf numFmtId="40" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="40" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -561,571 +574,698 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:I21"/>
+  <sheetPr codeName="Hoja1" filterMode="1"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="69.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" ht="53.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="J1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
-        <v>7.26</v>
-      </c>
-      <c r="C2" s="5">
-        <v>7.3</v>
-      </c>
-      <c r="D2" s="5">
-        <v>7.3</v>
-      </c>
-      <c r="E2" s="5">
-        <v>7.3</v>
-      </c>
-      <c r="F2" s="5">
-        <v>7.3</v>
-      </c>
-      <c r="G2" s="5">
-        <v>7.3</v>
-      </c>
-      <c r="H2" s="5">
-        <v>7.3</v>
-      </c>
-      <c r="I2" s="5">
-        <v>7.3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="B2" s="4">
+        <v>10.1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>10.1</v>
+      </c>
+      <c r="D2" s="4">
+        <v>10.1</v>
+      </c>
+      <c r="E2" s="4">
+        <v>10.1</v>
+      </c>
+      <c r="F2" s="4">
+        <v>10.1</v>
+      </c>
+      <c r="G2" s="4">
+        <v>10.1</v>
+      </c>
+      <c r="H2" s="4">
+        <v>10.1</v>
+      </c>
+      <c r="I2" s="4">
+        <v>10.1</v>
+      </c>
+      <c r="J2" s="4">
+        <v>10.1</v>
+      </c>
+      <c r="K2" s="4">
+        <v>10.1</v>
+      </c>
+      <c r="L2" s="4">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
-        <v>5.38</v>
-      </c>
-      <c r="C3" s="5">
-        <v>5.4</v>
-      </c>
-      <c r="D3" s="5">
-        <v>5.4</v>
-      </c>
-      <c r="E3" s="5">
-        <v>5.4</v>
-      </c>
-      <c r="F3" s="5">
-        <v>5.4</v>
-      </c>
-      <c r="G3" s="5">
-        <v>5.4</v>
-      </c>
-      <c r="H3" s="5">
-        <v>5.4</v>
-      </c>
-      <c r="I3" s="5">
-        <v>5.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="B3" s="4">
+        <v>8.08</v>
+      </c>
+      <c r="C3" s="4">
+        <v>8.08</v>
+      </c>
+      <c r="D3" s="4">
+        <v>8.08</v>
+      </c>
+      <c r="E3" s="4">
+        <v>8.08</v>
+      </c>
+      <c r="F3" s="4">
+        <v>8.08</v>
+      </c>
+      <c r="G3" s="4">
+        <v>8.08</v>
+      </c>
+      <c r="H3" s="4">
+        <v>8.08</v>
+      </c>
+      <c r="I3" s="4">
+        <v>8.08</v>
+      </c>
+      <c r="J3" s="4">
+        <v>8.08</v>
+      </c>
+      <c r="K3" s="4">
+        <v>8.08</v>
+      </c>
+      <c r="L3" s="4">
+        <v>8.08</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>8.33</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>2.72</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>16.149999999999999</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>8.11</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>10.52</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <v>5.0999999999999996</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <v>8.84</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <v>5.68</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="J4" s="4">
+        <v>6.69</v>
+      </c>
+      <c r="K4" s="4">
+        <v>3.24</v>
+      </c>
+      <c r="L4" s="4">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>19.149999999999999</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>8.0500000000000007</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>24.58</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <v>42.39</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <v>33.97</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <v>16.440000000000001</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="6">
         <v>28.55</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="6">
         <v>18.34</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="J5" s="6">
+        <v>61.58</v>
+      </c>
+      <c r="K5" s="6">
+        <v>29.78</v>
+      </c>
+      <c r="L5" s="6">
+        <v>17.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+    </row>
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>1.1399999999999999</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>1.45</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>2.75</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>0.79</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <v>3.03</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <v>1.92</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="6">
         <v>0.6</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="6">
         <v>2.0499999999999998</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="J8" s="6">
+        <v>0.89</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0.43</v>
+      </c>
+      <c r="L8" s="6">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>0.37</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>0.46</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <v>0.9</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <v>0.24</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <v>0.99</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <v>0.63</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="6">
         <v>0.19</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="6">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="J9" s="6">
+        <v>0.27</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0.13</v>
+      </c>
+      <c r="L9" s="6">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="8">
         <v>0</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <v>0</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>0</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <v>0</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="8">
         <v>0</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="8">
         <v>0</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="8">
         <v>0</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+    </row>
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="9">
-        <v>46</v>
-      </c>
-      <c r="C11" s="9">
-        <v>46</v>
-      </c>
-      <c r="D11" s="9">
-        <v>46</v>
-      </c>
-      <c r="E11" s="9">
-        <v>46</v>
-      </c>
-      <c r="F11" s="9">
-        <v>46</v>
-      </c>
-      <c r="G11" s="9">
-        <v>46</v>
-      </c>
-      <c r="H11" s="9">
-        <v>46</v>
-      </c>
-      <c r="I11" s="9">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
+      <c r="B11" s="8">
+        <v>37</v>
+      </c>
+      <c r="C11" s="8">
+        <v>42</v>
+      </c>
+      <c r="D11" s="8">
+        <v>42</v>
+      </c>
+      <c r="E11" s="8">
+        <v>42</v>
+      </c>
+      <c r="F11" s="8">
+        <v>42</v>
+      </c>
+      <c r="G11" s="8">
+        <v>42</v>
+      </c>
+      <c r="H11" s="8">
+        <v>42</v>
+      </c>
+      <c r="I11" s="8">
+        <v>42</v>
+      </c>
+      <c r="J11" s="8">
+        <v>42</v>
+      </c>
+      <c r="K11" s="8">
+        <v>42</v>
+      </c>
+      <c r="L11" s="8">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="11">
-        <v>78</v>
-      </c>
-      <c r="C12" s="11">
-        <v>80</v>
-      </c>
-      <c r="D12" s="11">
-        <v>78</v>
-      </c>
-      <c r="E12" s="11">
-        <v>78</v>
-      </c>
-      <c r="F12" s="11">
-        <v>78</v>
-      </c>
-      <c r="G12" s="11">
-        <v>78</v>
-      </c>
-      <c r="H12" s="11">
-        <v>78</v>
-      </c>
-      <c r="I12" s="11">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+      <c r="B12" s="10">
+        <v>77.5</v>
+      </c>
+      <c r="C12" s="10">
+        <v>76.2</v>
+      </c>
+      <c r="D12" s="10">
+        <v>82.1</v>
+      </c>
+      <c r="E12" s="10">
+        <v>77.5</v>
+      </c>
+      <c r="F12" s="10">
+        <v>80.3</v>
+      </c>
+      <c r="G12" s="10">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="H12" s="10">
+        <v>75</v>
+      </c>
+      <c r="I12" s="10">
+        <v>77</v>
+      </c>
+      <c r="J12" s="10">
+        <v>78.3</v>
+      </c>
+      <c r="K12" s="10">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="L12" s="10">
+        <v>71.599999999999994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="11">
         <v>18.499130912380693</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="11">
         <v>19.060892699117726</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="11">
         <v>18.499130912380693</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="11">
         <v>18.499130912380693</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="11">
         <v>18.499130912380693</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="11">
         <v>18.499130912380693</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="11">
         <v>18.499130912380693</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="11">
         <v>18.499130912380693</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+    </row>
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="11">
         <v>28.196000000000012</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="11">
         <v>29.708000000000013</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="11">
         <v>28.196000000000012</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="11">
         <v>28.196000000000012</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="11">
         <v>28.196000000000012</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="11">
         <v>28.196000000000012</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="11">
         <v>28.196000000000012</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="11">
         <v>28.196000000000012</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+    </row>
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="16">
         <v>32</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="16">
         <v>34</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="16">
         <v>32</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="16">
         <v>32</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="16">
         <v>32</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="16">
         <v>32</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H15" s="16">
         <v>32</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I15" s="16">
         <v>32</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+    </row>
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="13">
         <v>21.000428494630849</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="13">
         <v>21.765791775502731</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="13">
         <v>21.000428494630849</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="13">
         <v>21.000428494630849</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="13">
         <v>21.000428494630849</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="13">
         <v>21.000428494630849</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="13">
         <v>21.000428494630849</v>
       </c>
-      <c r="I16" s="14">
+      <c r="I16" s="13">
         <v>21.000428494630849</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="12">
         <v>19.309999999999999</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="12">
         <v>6.37</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="12">
         <v>44.1</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="12">
         <v>42.77</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="12">
         <v>37.880000000000003</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="12">
         <v>18.34</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="12">
         <v>31.83</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I17" s="12">
         <v>20.46</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
+      <c r="J17" s="12">
+        <v>36.03</v>
+      </c>
+      <c r="K17" s="12">
+        <v>17.43</v>
+      </c>
+      <c r="L17" s="12">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="14">
         <v>228.48</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="14">
         <v>40.76</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="14">
         <v>194.46</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="14">
         <v>46.82</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="14">
         <v>135.26</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G18" s="14">
         <v>65.5</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H18" s="14">
         <v>113.66</v>
       </c>
-      <c r="I18" s="13">
+      <c r="I18" s="12">
         <v>73.02</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
+      <c r="J18" s="12">
+        <v>284.36</v>
+      </c>
+      <c r="K18" s="12">
+        <v>137.52000000000001</v>
+      </c>
+      <c r="L18" s="12">
+        <v>79.680000000000007</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="5">
-        <v>10.3</v>
-      </c>
-      <c r="C19" s="5">
-        <v>10.3</v>
-      </c>
-      <c r="D19" s="5">
-        <v>10.3</v>
-      </c>
-      <c r="E19" s="5">
-        <v>10.3</v>
-      </c>
-      <c r="F19" s="5">
-        <v>10.3</v>
-      </c>
-      <c r="G19" s="5">
-        <v>10.3</v>
-      </c>
-      <c r="H19" s="5">
-        <v>10.3</v>
-      </c>
-      <c r="I19" s="5">
-        <v>10.3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="16" t="s">
+      <c r="B19" s="4">
+        <v>10.1</v>
+      </c>
+      <c r="C19" s="4">
+        <v>10.1</v>
+      </c>
+      <c r="D19" s="4">
+        <v>10.1</v>
+      </c>
+      <c r="E19" s="4">
+        <v>10.1</v>
+      </c>
+      <c r="F19" s="4">
+        <v>10.1</v>
+      </c>
+      <c r="G19" s="4">
+        <v>10.1</v>
+      </c>
+      <c r="H19" s="4">
+        <v>10.1</v>
+      </c>
+      <c r="I19" s="4">
+        <v>10.1</v>
+      </c>
+      <c r="J19" s="4">
+        <v>10.1</v>
+      </c>
+      <c r="K19" s="4">
+        <v>10.1</v>
+      </c>
+      <c r="L19" s="4">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="15" t="s">
         <v>18</v>
       </c>
       <c r="B20">
@@ -1152,37 +1292,72 @@
       <c r="I20">
         <v>30</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
+      <c r="J20">
+        <v>30</v>
+      </c>
+      <c r="K20">
+        <v>30</v>
+      </c>
+      <c r="L20">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="5">
-        <v>7.3</v>
-      </c>
-      <c r="C21" s="5">
-        <v>7.3</v>
-      </c>
-      <c r="D21" s="5">
-        <v>7.3</v>
-      </c>
-      <c r="E21" s="5">
-        <v>7.3</v>
-      </c>
-      <c r="F21" s="5">
-        <v>7.3</v>
-      </c>
-      <c r="G21" s="5">
-        <v>7.3</v>
-      </c>
-      <c r="H21" s="5">
-        <v>7.3</v>
-      </c>
-      <c r="I21" s="5">
-        <v>7.3</v>
+      <c r="B21" s="4">
+        <v>8.08</v>
+      </c>
+      <c r="C21" s="4">
+        <v>8.08</v>
+      </c>
+      <c r="D21" s="4">
+        <v>8.08</v>
+      </c>
+      <c r="E21" s="4">
+        <v>8.08</v>
+      </c>
+      <c r="F21" s="4">
+        <v>8.08</v>
+      </c>
+      <c r="G21" s="4">
+        <v>8.08</v>
+      </c>
+      <c r="H21" s="4">
+        <v>8.08</v>
+      </c>
+      <c r="I21" s="4">
+        <v>8.08</v>
+      </c>
+      <c r="J21" s="4">
+        <v>8.08</v>
+      </c>
+      <c r="K21" s="4">
+        <v>8.08</v>
+      </c>
+      <c r="L21" s="4">
+        <v>8.08</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L21">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Costo consulta a emergencias:"/>
+        <filter val="Costo de 1 día de internación:"/>
+        <filter val="Costo de tratamiento multiresistente consolidacion:"/>
+        <filter val="Costo de tratamiento multiresistente induccion:"/>
+        <filter val="Costo de un evento de DOT:"/>
+        <filter val="Costo de un evento de VOT:"/>
+        <filter val="Costo mensual de examenes complementarios:"/>
+        <filter val="Costo mensual de seguimiento:"/>
+        <filter val="Costo mensual del tratamiento consolidación:"/>
+        <filter val="Costo mensual del tratamiento inducción:"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>